--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c206_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c206_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3200" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6400" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -505,10 +517,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -552,28 +564,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="2">
+      <c r="C15" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -598,28 +610,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -678,10 +690,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -725,28 +737,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -771,28 +783,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -851,10 +863,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -898,28 +910,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -944,28 +956,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1024,10 +1036,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1071,28 +1083,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1117,28 +1129,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1197,10 +1209,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1244,28 +1256,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1290,28 +1302,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1370,10 +1382,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1417,28 +1429,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1463,28 +1475,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1543,10 +1555,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1590,28 +1602,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="2">
+      <c r="C51" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1636,28 +1648,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1716,10 +1728,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1763,28 +1775,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="2">
+      <c r="C57" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1809,28 +1821,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1889,10 +1901,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1936,28 +1948,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1982,28 +1994,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2062,10 +2074,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2109,28 +2121,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2155,28 +2167,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2235,10 +2247,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2282,28 +2294,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2328,28 +2340,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2408,10 +2420,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2455,28 +2467,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2501,28 +2513,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2581,10 +2593,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2628,28 +2640,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2674,28 +2686,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2754,10 +2766,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2801,28 +2813,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2847,28 +2859,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2927,10 +2939,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2974,28 +2986,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3020,28 +3032,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3100,10 +3112,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3147,28 +3159,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3193,28 +3205,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3273,10 +3285,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3320,28 +3332,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3366,28 +3378,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3446,10 +3458,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3493,28 +3505,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3539,28 +3551,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3619,10 +3631,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3666,28 +3678,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3712,28 +3724,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3792,10 +3804,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3839,28 +3851,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3885,28 +3897,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3965,10 +3977,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4012,28 +4024,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4058,28 +4070,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4138,10 +4150,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4185,28 +4197,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4231,28 +4243,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4311,10 +4323,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4358,28 +4370,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4404,28 +4416,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4484,10 +4496,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4531,28 +4543,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4577,28 +4589,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4657,10 +4669,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4704,28 +4716,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4750,28 +4762,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4830,10 +4842,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4877,28 +4889,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4923,28 +4935,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5003,10 +5015,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5050,28 +5062,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5096,28 +5108,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5176,10 +5188,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5223,28 +5235,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5269,28 +5281,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5349,10 +5361,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5396,28 +5408,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5442,28 +5454,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5522,10 +5534,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5569,28 +5581,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5615,28 +5627,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5695,10 +5707,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5742,28 +5754,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5788,28 +5800,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5868,10 +5880,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5915,28 +5927,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5961,28 +5973,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6041,10 +6053,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6088,28 +6100,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6134,28 +6146,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6214,10 +6226,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6261,28 +6273,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6307,28 +6319,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6387,10 +6399,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6434,28 +6446,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6480,28 +6492,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6560,10 +6572,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6607,28 +6619,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6653,28 +6665,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6733,10 +6745,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6780,28 +6792,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6826,28 +6838,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6906,10 +6918,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="2" t="s">
+      <c r="J235" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6953,28 +6965,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="2">
+      <c r="A237" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="2">
+      <c r="C237" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6999,28 +7011,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="2">
+      <c r="C239" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="2">
+      <c r="D239" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="2">
+      <c r="I239" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7079,10 +7091,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7126,28 +7138,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="2">
+      <c r="A243" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="2">
+      <c r="C243" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7172,28 +7184,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="2">
+      <c r="C245" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="2">
+      <c r="D245" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="2">
+      <c r="I245" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7252,10 +7264,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7299,28 +7311,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7345,28 +7357,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7425,10 +7437,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7472,28 +7484,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7518,28 +7530,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7598,10 +7610,10 @@
       <c r="I259">
         <f>((C259-C258)^2+(D259- D258)^2)^.5</f>
       </c>
-      <c r="J259" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K259" s="2" t="s">
+      <c r="J259" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K259" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L259" t="n">
@@ -7645,28 +7657,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s" s="2">
+      <c r="A261" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C261" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D261" t="s" s="2">
+      <c r="C261" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D261" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7691,28 +7703,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C263" t="s" s="2">
+      <c r="C263" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D263" t="s" s="2">
+      <c r="D263" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I263" t="s" s="2">
+      <c r="I263" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7771,10 +7783,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="2" t="s">
+      <c r="J265" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7818,28 +7830,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="2">
+      <c r="A267" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="2">
+      <c r="C267" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7864,28 +7876,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="2">
+      <c r="C269" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="2">
+      <c r="D269" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="2">
+      <c r="I269" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7944,10 +7956,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="2" t="s">
+      <c r="J271" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -7991,28 +8003,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="2">
+      <c r="A273" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="2">
+      <c r="C273" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8037,28 +8049,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="2">
+      <c r="C275" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="2">
+      <c r="D275" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="2">
+      <c r="I275" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8117,10 +8129,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="2" t="s">
+      <c r="J277" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8164,28 +8176,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="2">
+      <c r="A279" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="2">
+      <c r="C279" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8210,28 +8222,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="2">
+      <c r="C281" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="2">
+      <c r="D281" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="2">
+      <c r="I281" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8290,10 +8302,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="2" t="s">
+      <c r="J283" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8337,28 +8349,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="2">
+      <c r="A285" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="2">
+      <c r="C285" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8383,28 +8395,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="2">
+      <c r="C287" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="2">
+      <c r="D287" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="2">
+      <c r="I287" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8463,10 +8475,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="2" t="s">
+      <c r="J289" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8510,28 +8522,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="2">
+      <c r="A291" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="2">
+      <c r="C291" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8556,28 +8568,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="2">
+      <c r="C293" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="2">
+      <c r="D293" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="2">
+      <c r="I293" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8636,10 +8648,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="2" t="s">
+      <c r="J295" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8683,28 +8695,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="2">
+      <c r="A297" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="2">
+      <c r="C297" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8729,28 +8741,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="2">
+      <c r="C299" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="2">
+      <c r="D299" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="2">
+      <c r="I299" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8809,10 +8821,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="2" t="s">
+      <c r="J301" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
@@ -8856,28 +8868,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="s" s="2">
+      <c r="A303" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B303" t="s" s="2">
+      <c r="B303" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C303" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D303" t="s" s="2">
+      <c r="C303" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D303" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E303" t="s" s="2">
+      <c r="E303" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F303" t="s" s="2">
+      <c r="F303" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G303" t="s" s="2">
+      <c r="G303" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H303" t="s" s="2">
+      <c r="H303" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8902,28 +8914,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C305" t="s" s="2">
+      <c r="C305" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D305" t="s" s="2">
+      <c r="D305" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I305" t="s" s="2">
+      <c r="I305" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8982,10 +8994,10 @@
       <c r="I307">
         <f>((C307-C306)^2+(D307- D306)^2)^.5</f>
       </c>
-      <c r="J307" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K307" s="2" t="s">
+      <c r="J307" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K307" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L307" t="n">
@@ -9029,28 +9041,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="s" s="2">
+      <c r="A309" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B309" t="s" s="2">
+      <c r="B309" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C309" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D309" t="s" s="2">
+      <c r="C309" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D309" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E309" t="s" s="2">
+      <c r="E309" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F309" t="s" s="2">
+      <c r="F309" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G309" t="s" s="2">
+      <c r="G309" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H309" t="s" s="2">
+      <c r="H309" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9075,28 +9087,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C311" t="s" s="2">
+      <c r="C311" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D311" t="s" s="2">
+      <c r="D311" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I311" t="s" s="2">
+      <c r="I311" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9155,10 +9167,10 @@
       <c r="I313">
         <f>((C313-C312)^2+(D313- D312)^2)^.5</f>
       </c>
-      <c r="J313" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K313" s="2" t="s">
+      <c r="J313" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K313" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L313" t="n">
@@ -9202,28 +9214,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="s" s="2">
+      <c r="A315" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B315" t="s" s="2">
+      <c r="B315" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C315" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D315" t="s" s="2">
+      <c r="C315" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D315" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E315" t="s" s="2">
+      <c r="E315" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F315" t="s" s="2">
+      <c r="F315" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G315" t="s" s="2">
+      <c r="G315" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H315" t="s" s="2">
+      <c r="H315" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9248,28 +9260,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="B317" t="s" s="2">
+      <c r="B317" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C317" t="s" s="2">
+      <c r="C317" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D317" t="s" s="2">
+      <c r="D317" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E317" t="s" s="2">
+      <c r="E317" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F317" t="s" s="2">
+      <c r="F317" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G317" t="s" s="2">
+      <c r="G317" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H317" t="s" s="2">
+      <c r="H317" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I317" t="s" s="2">
+      <c r="I317" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9328,10 +9340,10 @@
       <c r="I319">
         <f>((C319-C318)^2+(D319- D318)^2)^.5</f>
       </c>
-      <c r="J319" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K319" s="2" t="s">
+      <c r="J319" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K319" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L319" t="n">
@@ -9375,28 +9387,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="s" s="2">
+      <c r="A321" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C321" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D321" t="s" s="2">
+      <c r="C321" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D321" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9421,28 +9433,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="B323" t="s" s="2">
+      <c r="B323" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C323" t="s" s="2">
+      <c r="C323" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D323" t="s" s="2">
+      <c r="D323" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E323" t="s" s="2">
+      <c r="E323" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F323" t="s" s="2">
+      <c r="F323" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G323" t="s" s="2">
+      <c r="G323" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H323" t="s" s="2">
+      <c r="H323" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I323" t="s" s="2">
+      <c r="I323" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9501,10 +9513,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="2" t="s">
+      <c r="J325" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9548,28 +9560,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="2">
+      <c r="A327" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="2">
+      <c r="C327" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9594,28 +9606,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="2">
+      <c r="C329" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="2">
+      <c r="D329" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="2">
+      <c r="I329" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9674,10 +9686,10 @@
       <c r="I331">
         <f>((C331-C330)^2+(D331- D330)^2)^.5</f>
       </c>
-      <c r="J331" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K331" s="2" t="s">
+      <c r="J331" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K331" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L331" t="n">
@@ -9721,28 +9733,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="s" s="2">
+      <c r="A333" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C333" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D333" t="s" s="2">
+      <c r="C333" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D333" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9767,28 +9779,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="B335" t="s" s="2">
+      <c r="B335" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C335" t="s" s="2">
+      <c r="C335" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D335" t="s" s="2">
+      <c r="D335" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E335" t="s" s="2">
+      <c r="E335" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F335" t="s" s="2">
+      <c r="F335" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G335" t="s" s="2">
+      <c r="G335" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H335" t="s" s="2">
+      <c r="H335" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I335" t="s" s="2">
+      <c r="I335" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9847,10 +9859,10 @@
       <c r="I337">
         <f>((C337-C336)^2+(D337- D336)^2)^.5</f>
       </c>
-      <c r="J337" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K337" s="2" t="s">
+      <c r="J337" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K337" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L337" t="n">
@@ -9894,28 +9906,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="s" s="2">
+      <c r="A339" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C339" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D339" t="s" s="2">
+      <c r="C339" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9940,28 +9952,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="B341" t="s" s="2">
+      <c r="B341" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C341" t="s" s="2">
+      <c r="C341" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D341" t="s" s="2">
+      <c r="D341" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E341" t="s" s="2">
+      <c r="E341" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F341" t="s" s="2">
+      <c r="F341" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G341" t="s" s="2">
+      <c r="G341" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H341" t="s" s="2">
+      <c r="H341" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I341" t="s" s="2">
+      <c r="I341" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10020,10 +10032,10 @@
       <c r="I343">
         <f>((C343-C342)^2+(D343- D342)^2)^.5</f>
       </c>
-      <c r="J343" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K343" s="2" t="s">
+      <c r="J343" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K343" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L343" t="n">
@@ -10067,28 +10079,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="s" s="2">
+      <c r="A345" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B345" t="s" s="2">
+      <c r="B345" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C345" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D345" t="s" s="2">
+      <c r="C345" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D345" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E345" t="s" s="2">
+      <c r="E345" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F345" t="s" s="2">
+      <c r="F345" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G345" t="s" s="2">
+      <c r="G345" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H345" t="s" s="2">
+      <c r="H345" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10113,28 +10125,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="B347" t="s" s="2">
+      <c r="B347" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C347" t="s" s="2">
+      <c r="C347" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D347" t="s" s="2">
+      <c r="D347" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E347" t="s" s="2">
+      <c r="E347" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F347" t="s" s="2">
+      <c r="F347" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G347" t="s" s="2">
+      <c r="G347" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H347" t="s" s="2">
+      <c r="H347" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I347" t="s" s="2">
+      <c r="I347" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10193,10 +10205,10 @@
       <c r="I349">
         <f>((C349-C348)^2+(D349- D348)^2)^.5</f>
       </c>
-      <c r="J349" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K349" s="2" t="s">
+      <c r="J349" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K349" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L349" t="n">
@@ -10240,28 +10252,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="2">
+      <c r="A351" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B351" t="s" s="2">
+      <c r="B351" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C351" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D351" t="s" s="2">
+      <c r="C351" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E351" t="s" s="2">
+      <c r="E351" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F351" t="s" s="2">
+      <c r="F351" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G351" t="s" s="2">
+      <c r="G351" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H351" t="s" s="2">
+      <c r="H351" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10286,28 +10298,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="B353" t="s" s="2">
+      <c r="B353" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C353" t="s" s="2">
+      <c r="C353" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D353" t="s" s="2">
+      <c r="D353" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E353" t="s" s="2">
+      <c r="E353" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F353" t="s" s="2">
+      <c r="F353" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G353" t="s" s="2">
+      <c r="G353" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H353" t="s" s="2">
+      <c r="H353" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I353" t="s" s="2">
+      <c r="I353" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10366,10 +10378,10 @@
       <c r="I355">
         <f>((C355-C354)^2+(D355- D354)^2)^.5</f>
       </c>
-      <c r="J355" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K355" s="2" t="s">
+      <c r="J355" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K355" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L355" t="n">
@@ -10413,28 +10425,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="s" s="2">
+      <c r="A357" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B357" t="s" s="2">
+      <c r="B357" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C357" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D357" t="s" s="2">
+      <c r="C357" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D357" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E357" t="s" s="2">
+      <c r="E357" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F357" t="s" s="2">
+      <c r="F357" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G357" t="s" s="2">
+      <c r="G357" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H357" t="s" s="2">
+      <c r="H357" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10459,28 +10471,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="B359" t="s" s="2">
+      <c r="B359" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C359" t="s" s="2">
+      <c r="C359" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D359" t="s" s="2">
+      <c r="D359" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E359" t="s" s="2">
+      <c r="E359" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F359" t="s" s="2">
+      <c r="F359" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G359" t="s" s="2">
+      <c r="G359" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H359" t="s" s="2">
+      <c r="H359" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I359" t="s" s="2">
+      <c r="I359" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10539,10 +10551,10 @@
       <c r="I361">
         <f>((C361-C360)^2+(D361- D360)^2)^.5</f>
       </c>
-      <c r="J361" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K361" s="2" t="s">
+      <c r="J361" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K361" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L361" t="n">
@@ -10586,28 +10598,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="s" s="2">
+      <c r="A363" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B363" t="s" s="2">
+      <c r="B363" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C363" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D363" t="s" s="2">
+      <c r="C363" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D363" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E363" t="s" s="2">
+      <c r="E363" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F363" t="s" s="2">
+      <c r="F363" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G363" t="s" s="2">
+      <c r="G363" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H363" t="s" s="2">
+      <c r="H363" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10632,28 +10644,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="B365" t="s" s="2">
+      <c r="B365" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C365" t="s" s="2">
+      <c r="C365" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D365" t="s" s="2">
+      <c r="D365" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E365" t="s" s="2">
+      <c r="E365" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F365" t="s" s="2">
+      <c r="F365" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G365" t="s" s="2">
+      <c r="G365" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H365" t="s" s="2">
+      <c r="H365" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I365" t="s" s="2">
+      <c r="I365" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10712,10 +10724,10 @@
       <c r="I367">
         <f>((C367-C366)^2+(D367- D366)^2)^.5</f>
       </c>
-      <c r="J367" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K367" s="2" t="s">
+      <c r="J367" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K367" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L367" t="n">
@@ -10759,28 +10771,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="s" s="2">
+      <c r="A369" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B369" t="s" s="2">
+      <c r="B369" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C369" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D369" t="s" s="2">
+      <c r="C369" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D369" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E369" t="s" s="2">
+      <c r="E369" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F369" t="s" s="2">
+      <c r="F369" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G369" t="s" s="2">
+      <c r="G369" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H369" t="s" s="2">
+      <c r="H369" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10805,28 +10817,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="B371" t="s" s="2">
+      <c r="B371" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C371" t="s" s="2">
+      <c r="C371" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D371" t="s" s="2">
+      <c r="D371" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E371" t="s" s="2">
+      <c r="E371" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F371" t="s" s="2">
+      <c r="F371" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G371" t="s" s="2">
+      <c r="G371" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H371" t="s" s="2">
+      <c r="H371" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I371" t="s" s="2">
+      <c r="I371" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10885,10 +10897,10 @@
       <c r="I373">
         <f>((C373-C372)^2+(D373- D372)^2)^.5</f>
       </c>
-      <c r="J373" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K373" s="2" t="s">
+      <c r="J373" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K373" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L373" t="n">
@@ -10932,28 +10944,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="s" s="2">
+      <c r="A375" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B375" t="s" s="2">
+      <c r="B375" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C375" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D375" t="s" s="2">
+      <c r="C375" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D375" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E375" t="s" s="2">
+      <c r="E375" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F375" t="s" s="2">
+      <c r="F375" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G375" t="s" s="2">
+      <c r="G375" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H375" t="s" s="2">
+      <c r="H375" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10978,28 +10990,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="B377" t="s" s="2">
+      <c r="B377" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C377" t="s" s="2">
+      <c r="C377" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D377" t="s" s="2">
+      <c r="D377" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E377" t="s" s="2">
+      <c r="E377" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F377" t="s" s="2">
+      <c r="F377" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G377" t="s" s="2">
+      <c r="G377" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H377" t="s" s="2">
+      <c r="H377" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I377" t="s" s="2">
+      <c r="I377" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11058,10 +11070,10 @@
       <c r="I379">
         <f>((C379-C378)^2+(D379- D378)^2)^.5</f>
       </c>
-      <c r="J379" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K379" s="2" t="s">
+      <c r="J379" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K379" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L379" t="n">
@@ -11105,28 +11117,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="s" s="2">
+      <c r="A381" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B381" t="s" s="2">
+      <c r="B381" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C381" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D381" t="s" s="2">
+      <c r="C381" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D381" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E381" t="s" s="2">
+      <c r="E381" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F381" t="s" s="2">
+      <c r="F381" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G381" t="s" s="2">
+      <c r="G381" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H381" t="s" s="2">
+      <c r="H381" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11151,28 +11163,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="B383" t="s" s="2">
+      <c r="B383" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C383" t="s" s="2">
+      <c r="C383" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D383" t="s" s="2">
+      <c r="D383" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E383" t="s" s="2">
+      <c r="E383" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F383" t="s" s="2">
+      <c r="F383" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G383" t="s" s="2">
+      <c r="G383" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H383" t="s" s="2">
+      <c r="H383" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I383" t="s" s="2">
+      <c r="I383" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11231,10 +11243,10 @@
       <c r="I385">
         <f>((C385-C384)^2+(D385- D384)^2)^.5</f>
       </c>
-      <c r="J385" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K385" s="2" t="s">
+      <c r="J385" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K385" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L385" t="n">
@@ -11278,28 +11290,28 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="s" s="2">
+      <c r="A387" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B387" t="s" s="2">
+      <c r="B387" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C387" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D387" t="s" s="2">
+      <c r="C387" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D387" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E387" t="s" s="2">
+      <c r="E387" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F387" t="s" s="2">
+      <c r="F387" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G387" t="s" s="2">
+      <c r="G387" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H387" t="s" s="2">
+      <c r="H387" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11324,28 +11336,28 @@
       </c>
     </row>
     <row r="389">
-      <c r="B389" t="s" s="2">
+      <c r="B389" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C389" t="s" s="2">
+      <c r="C389" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D389" t="s" s="2">
+      <c r="D389" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E389" t="s" s="2">
+      <c r="E389" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F389" t="s" s="2">
+      <c r="F389" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G389" t="s" s="2">
+      <c r="G389" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H389" t="s" s="2">
+      <c r="H389" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I389" t="s" s="2">
+      <c r="I389" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11578,10 +11590,10 @@
       <c r="I397">
         <f>((C397-C396)^2+(D397- D396)^2)^.5</f>
       </c>
-      <c r="J397" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K397" s="2" t="s">
+      <c r="J397" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K397" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L397" t="n">
@@ -11625,28 +11637,28 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" t="s" s="2">
+      <c r="A399" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B399" t="s" s="2">
+      <c r="B399" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C399" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D399" t="s" s="2">
+      <c r="C399" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D399" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E399" t="s" s="2">
+      <c r="E399" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F399" t="s" s="2">
+      <c r="F399" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G399" t="s" s="2">
+      <c r="G399" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H399" t="s" s="2">
+      <c r="H399" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11671,28 +11683,28 @@
       </c>
     </row>
     <row r="401">
-      <c r="B401" t="s" s="2">
+      <c r="B401" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C401" t="s" s="2">
+      <c r="C401" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D401" t="s" s="2">
+      <c r="D401" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E401" t="s" s="2">
+      <c r="E401" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F401" t="s" s="2">
+      <c r="F401" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G401" t="s" s="2">
+      <c r="G401" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H401" t="s" s="2">
+      <c r="H401" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I401" t="s" s="2">
+      <c r="I401" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11751,10 +11763,10 @@
       <c r="I403">
         <f>((C403-C402)^2+(D403- D402)^2)^.5</f>
       </c>
-      <c r="J403" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K403" s="2" t="s">
+      <c r="J403" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K403" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L403" t="n">
@@ -11798,28 +11810,28 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" t="s" s="2">
+      <c r="A405" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B405" t="s" s="2">
+      <c r="B405" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C405" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D405" t="s" s="2">
+      <c r="C405" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D405" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E405" t="s" s="2">
+      <c r="E405" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F405" t="s" s="2">
+      <c r="F405" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G405" t="s" s="2">
+      <c r="G405" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H405" t="s" s="2">
+      <c r="H405" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11844,28 +11856,28 @@
       </c>
     </row>
     <row r="407">
-      <c r="B407" t="s" s="2">
+      <c r="B407" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C407" t="s" s="2">
+      <c r="C407" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D407" t="s" s="2">
+      <c r="D407" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E407" t="s" s="2">
+      <c r="E407" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F407" t="s" s="2">
+      <c r="F407" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G407" t="s" s="2">
+      <c r="G407" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H407" t="s" s="2">
+      <c r="H407" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I407" t="s" s="2">
+      <c r="I407" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11924,10 +11936,10 @@
       <c r="I409">
         <f>((C409-C408)^2+(D409- D408)^2)^.5</f>
       </c>
-      <c r="J409" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K409" s="2" t="s">
+      <c r="J409" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K409" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L409" t="n">
@@ -11971,28 +11983,28 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" t="s" s="2">
+      <c r="A411" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B411" t="s" s="2">
+      <c r="B411" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C411" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D411" t="s" s="2">
+      <c r="C411" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D411" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E411" t="s" s="2">
+      <c r="E411" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F411" t="s" s="2">
+      <c r="F411" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G411" t="s" s="2">
+      <c r="G411" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H411" t="s" s="2">
+      <c r="H411" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12017,28 +12029,28 @@
       </c>
     </row>
     <row r="413">
-      <c r="B413" t="s" s="2">
+      <c r="B413" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C413" t="s" s="2">
+      <c r="C413" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D413" t="s" s="2">
+      <c r="D413" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E413" t="s" s="2">
+      <c r="E413" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F413" t="s" s="2">
+      <c r="F413" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G413" t="s" s="2">
+      <c r="G413" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H413" t="s" s="2">
+      <c r="H413" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I413" t="s" s="2">
+      <c r="I413" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12097,10 +12109,10 @@
       <c r="I415">
         <f>((C415-C414)^2+(D415- D414)^2)^.5</f>
       </c>
-      <c r="J415" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K415" s="2" t="s">
+      <c r="J415" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K415" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L415" t="n">
@@ -12144,28 +12156,28 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="s" s="2">
+      <c r="A417" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B417" t="s" s="2">
+      <c r="B417" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C417" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D417" t="s" s="2">
+      <c r="C417" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D417" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E417" t="s" s="2">
+      <c r="E417" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F417" t="s" s="2">
+      <c r="F417" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G417" t="s" s="2">
+      <c r="G417" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H417" t="s" s="2">
+      <c r="H417" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12190,28 +12202,28 @@
       </c>
     </row>
     <row r="419">
-      <c r="B419" t="s" s="2">
+      <c r="B419" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C419" t="s" s="2">
+      <c r="C419" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D419" t="s" s="2">
+      <c r="D419" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E419" t="s" s="2">
+      <c r="E419" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F419" t="s" s="2">
+      <c r="F419" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G419" t="s" s="2">
+      <c r="G419" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H419" t="s" s="2">
+      <c r="H419" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I419" t="s" s="2">
+      <c r="I419" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12270,10 +12282,10 @@
       <c r="I421">
         <f>((C421-C420)^2+(D421- D420)^2)^.5</f>
       </c>
-      <c r="J421" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K421" s="2" t="s">
+      <c r="J421" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K421" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L421" t="n">
@@ -12317,28 +12329,28 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" t="s" s="2">
+      <c r="A423" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B423" t="s" s="2">
+      <c r="B423" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C423" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D423" t="s" s="2">
+      <c r="C423" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D423" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E423" t="s" s="2">
+      <c r="E423" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F423" t="s" s="2">
+      <c r="F423" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G423" t="s" s="2">
+      <c r="G423" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H423" t="s" s="2">
+      <c r="H423" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12363,28 +12375,28 @@
       </c>
     </row>
     <row r="425">
-      <c r="B425" t="s" s="2">
+      <c r="B425" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C425" t="s" s="2">
+      <c r="C425" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D425" t="s" s="2">
+      <c r="D425" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E425" t="s" s="2">
+      <c r="E425" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F425" t="s" s="2">
+      <c r="F425" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G425" t="s" s="2">
+      <c r="G425" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H425" t="s" s="2">
+      <c r="H425" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I425" t="s" s="2">
+      <c r="I425" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12443,10 +12455,10 @@
       <c r="I427">
         <f>((C427-C426)^2+(D427- D426)^2)^.5</f>
       </c>
-      <c r="J427" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K427" s="2" t="s">
+      <c r="J427" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K427" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L427" t="n">
@@ -12490,28 +12502,28 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" t="s" s="2">
+      <c r="A429" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B429" t="s" s="2">
+      <c r="B429" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C429" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D429" t="s" s="2">
+      <c r="C429" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D429" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E429" t="s" s="2">
+      <c r="E429" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F429" t="s" s="2">
+      <c r="F429" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G429" t="s" s="2">
+      <c r="G429" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H429" t="s" s="2">
+      <c r="H429" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12536,28 +12548,28 @@
       </c>
     </row>
     <row r="431">
-      <c r="B431" t="s" s="2">
+      <c r="B431" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C431" t="s" s="2">
+      <c r="C431" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D431" t="s" s="2">
+      <c r="D431" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E431" t="s" s="2">
+      <c r="E431" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F431" t="s" s="2">
+      <c r="F431" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G431" t="s" s="2">
+      <c r="G431" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H431" t="s" s="2">
+      <c r="H431" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I431" t="s" s="2">
+      <c r="I431" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12616,10 +12628,10 @@
       <c r="I433">
         <f>((C433-C432)^2+(D433- D432)^2)^.5</f>
       </c>
-      <c r="J433" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K433" s="2" t="s">
+      <c r="J433" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K433" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L433" t="n">
@@ -12663,28 +12675,28 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="s" s="2">
+      <c r="A435" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B435" t="s" s="2">
+      <c r="B435" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C435" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D435" t="s" s="2">
+      <c r="C435" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D435" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E435" t="s" s="2">
+      <c r="E435" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F435" t="s" s="2">
+      <c r="F435" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G435" t="s" s="2">
+      <c r="G435" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H435" t="s" s="2">
+      <c r="H435" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12709,28 +12721,28 @@
       </c>
     </row>
     <row r="437">
-      <c r="B437" t="s" s="2">
+      <c r="B437" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C437" t="s" s="2">
+      <c r="C437" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D437" t="s" s="2">
+      <c r="D437" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E437" t="s" s="2">
+      <c r="E437" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F437" t="s" s="2">
+      <c r="F437" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G437" t="s" s="2">
+      <c r="G437" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H437" t="s" s="2">
+      <c r="H437" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I437" t="s" s="2">
+      <c r="I437" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12789,10 +12801,10 @@
       <c r="I439">
         <f>((C439-C438)^2+(D439- D438)^2)^.5</f>
       </c>
-      <c r="J439" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K439" s="2" t="s">
+      <c r="J439" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K439" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L439" t="n">
@@ -12836,28 +12848,28 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="s" s="2">
+      <c r="A441" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B441" t="s" s="2">
+      <c r="B441" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C441" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D441" t="s" s="2">
+      <c r="C441" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D441" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E441" t="s" s="2">
+      <c r="E441" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F441" t="s" s="2">
+      <c r="F441" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G441" t="s" s="2">
+      <c r="G441" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H441" t="s" s="2">
+      <c r="H441" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12882,28 +12894,28 @@
       </c>
     </row>
     <row r="443">
-      <c r="B443" t="s" s="2">
+      <c r="B443" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C443" t="s" s="2">
+      <c r="C443" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D443" t="s" s="2">
+      <c r="D443" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E443" t="s" s="2">
+      <c r="E443" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F443" t="s" s="2">
+      <c r="F443" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G443" t="s" s="2">
+      <c r="G443" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H443" t="s" s="2">
+      <c r="H443" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I443" t="s" s="2">
+      <c r="I443" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12962,10 +12974,10 @@
       <c r="I445">
         <f>((C445-C444)^2+(D445- D444)^2)^.5</f>
       </c>
-      <c r="J445" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K445" s="2" t="s">
+      <c r="J445" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K445" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L445" t="n">
@@ -13009,28 +13021,28 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="s" s="2">
+      <c r="A447" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B447" t="s" s="2">
+      <c r="B447" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C447" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D447" t="s" s="2">
+      <c r="C447" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D447" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E447" t="s" s="2">
+      <c r="E447" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F447" t="s" s="2">
+      <c r="F447" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G447" t="s" s="2">
+      <c r="G447" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H447" t="s" s="2">
+      <c r="H447" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13055,28 +13067,28 @@
       </c>
     </row>
     <row r="449">
-      <c r="B449" t="s" s="2">
+      <c r="B449" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C449" t="s" s="2">
+      <c r="C449" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D449" t="s" s="2">
+      <c r="D449" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E449" t="s" s="2">
+      <c r="E449" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F449" t="s" s="2">
+      <c r="F449" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G449" t="s" s="2">
+      <c r="G449" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H449" t="s" s="2">
+      <c r="H449" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I449" t="s" s="2">
+      <c r="I449" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13135,10 +13147,10 @@
       <c r="I451">
         <f>((C451-C450)^2+(D451- D450)^2)^.5</f>
       </c>
-      <c r="J451" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K451" s="2" t="s">
+      <c r="J451" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K451" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L451" t="n">
@@ -13182,28 +13194,28 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="s" s="2">
+      <c r="A453" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B453" t="s" s="2">
+      <c r="B453" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C453" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D453" t="s" s="2">
+      <c r="C453" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D453" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E453" t="s" s="2">
+      <c r="E453" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F453" t="s" s="2">
+      <c r="F453" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G453" t="s" s="2">
+      <c r="G453" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H453" t="s" s="2">
+      <c r="H453" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13228,28 +13240,28 @@
       </c>
     </row>
     <row r="455">
-      <c r="B455" t="s" s="2">
+      <c r="B455" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C455" t="s" s="2">
+      <c r="C455" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D455" t="s" s="2">
+      <c r="D455" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E455" t="s" s="2">
+      <c r="E455" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F455" t="s" s="2">
+      <c r="F455" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G455" t="s" s="2">
+      <c r="G455" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H455" t="s" s="2">
+      <c r="H455" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I455" t="s" s="2">
+      <c r="I455" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13308,10 +13320,10 @@
       <c r="I457">
         <f>((C457-C456)^2+(D457- D456)^2)^.5</f>
       </c>
-      <c r="J457" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K457" s="2" t="s">
+      <c r="J457" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K457" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L457" t="n">
@@ -13355,28 +13367,28 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="s" s="2">
+      <c r="A459" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B459" t="s" s="2">
+      <c r="B459" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C459" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D459" t="s" s="2">
+      <c r="C459" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D459" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E459" t="s" s="2">
+      <c r="E459" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F459" t="s" s="2">
+      <c r="F459" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G459" t="s" s="2">
+      <c r="G459" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H459" t="s" s="2">
+      <c r="H459" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13401,28 +13413,28 @@
       </c>
     </row>
     <row r="461">
-      <c r="B461" t="s" s="2">
+      <c r="B461" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C461" t="s" s="2">
+      <c r="C461" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D461" t="s" s="2">
+      <c r="D461" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E461" t="s" s="2">
+      <c r="E461" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F461" t="s" s="2">
+      <c r="F461" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G461" t="s" s="2">
+      <c r="G461" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H461" t="s" s="2">
+      <c r="H461" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I461" t="s" s="2">
+      <c r="I461" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13481,10 +13493,10 @@
       <c r="I463">
         <f>((C463-C462)^2+(D463- D462)^2)^.5</f>
       </c>
-      <c r="J463" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K463" s="2" t="s">
+      <c r="J463" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K463" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L463" t="n">
@@ -13528,28 +13540,28 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="s" s="2">
+      <c r="A465" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B465" t="s" s="2">
+      <c r="B465" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C465" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D465" t="s" s="2">
+      <c r="C465" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D465" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E465" t="s" s="2">
+      <c r="E465" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F465" t="s" s="2">
+      <c r="F465" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G465" t="s" s="2">
+      <c r="G465" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H465" t="s" s="2">
+      <c r="H465" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13574,28 +13586,28 @@
       </c>
     </row>
     <row r="467">
-      <c r="B467" t="s" s="2">
+      <c r="B467" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C467" t="s" s="2">
+      <c r="C467" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D467" t="s" s="2">
+      <c r="D467" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E467" t="s" s="2">
+      <c r="E467" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F467" t="s" s="2">
+      <c r="F467" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G467" t="s" s="2">
+      <c r="G467" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H467" t="s" s="2">
+      <c r="H467" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I467" t="s" s="2">
+      <c r="I467" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13654,10 +13666,10 @@
       <c r="I469">
         <f>((C469-C468)^2+(D469- D468)^2)^.5</f>
       </c>
-      <c r="J469" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K469" s="2" t="s">
+      <c r="J469" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K469" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L469" t="n">
@@ -13701,28 +13713,28 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="s" s="2">
+      <c r="A471" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B471" t="s" s="2">
+      <c r="B471" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C471" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D471" t="s" s="2">
+      <c r="C471" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D471" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E471" t="s" s="2">
+      <c r="E471" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F471" t="s" s="2">
+      <c r="F471" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G471" t="s" s="2">
+      <c r="G471" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H471" t="s" s="2">
+      <c r="H471" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13747,28 +13759,28 @@
       </c>
     </row>
     <row r="473">
-      <c r="B473" t="s" s="2">
+      <c r="B473" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C473" t="s" s="2">
+      <c r="C473" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D473" t="s" s="2">
+      <c r="D473" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E473" t="s" s="2">
+      <c r="E473" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F473" t="s" s="2">
+      <c r="F473" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G473" t="s" s="2">
+      <c r="G473" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H473" t="s" s="2">
+      <c r="H473" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I473" t="s" s="2">
+      <c r="I473" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13827,10 +13839,10 @@
       <c r="I475">
         <f>((C475-C474)^2+(D475- D474)^2)^.5</f>
       </c>
-      <c r="J475" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K475" s="2" t="s">
+      <c r="J475" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K475" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L475" t="n">
@@ -13874,28 +13886,28 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="s" s="2">
+      <c r="A477" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B477" t="s" s="2">
+      <c r="B477" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C477" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D477" t="s" s="2">
+      <c r="C477" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D477" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E477" t="s" s="2">
+      <c r="E477" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F477" t="s" s="2">
+      <c r="F477" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G477" t="s" s="2">
+      <c r="G477" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H477" t="s" s="2">
+      <c r="H477" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13920,28 +13932,28 @@
       </c>
     </row>
     <row r="479">
-      <c r="B479" t="s" s="2">
+      <c r="B479" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C479" t="s" s="2">
+      <c r="C479" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D479" t="s" s="2">
+      <c r="D479" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E479" t="s" s="2">
+      <c r="E479" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F479" t="s" s="2">
+      <c r="F479" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G479" t="s" s="2">
+      <c r="G479" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H479" t="s" s="2">
+      <c r="H479" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I479" t="s" s="2">
+      <c r="I479" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14000,10 +14012,10 @@
       <c r="I481">
         <f>((C481-C480)^2+(D481- D480)^2)^.5</f>
       </c>
-      <c r="J481" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K481" s="2" t="s">
+      <c r="J481" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K481" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L481" t="n">
@@ -14047,28 +14059,28 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="s" s="2">
+      <c r="A483" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B483" t="s" s="2">
+      <c r="B483" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C483" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D483" t="s" s="2">
+      <c r="C483" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D483" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E483" t="s" s="2">
+      <c r="E483" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F483" t="s" s="2">
+      <c r="F483" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G483" t="s" s="2">
+      <c r="G483" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H483" t="s" s="2">
+      <c r="H483" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14093,28 +14105,28 @@
       </c>
     </row>
     <row r="485">
-      <c r="B485" t="s" s="2">
+      <c r="B485" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C485" t="s" s="2">
+      <c r="C485" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D485" t="s" s="2">
+      <c r="D485" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E485" t="s" s="2">
+      <c r="E485" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F485" t="s" s="2">
+      <c r="F485" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G485" t="s" s="2">
+      <c r="G485" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H485" t="s" s="2">
+      <c r="H485" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I485" t="s" s="2">
+      <c r="I485" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14173,10 +14185,10 @@
       <c r="I487">
         <f>((C487-C486)^2+(D487- D486)^2)^.5</f>
       </c>
-      <c r="J487" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K487" s="2" t="s">
+      <c r="J487" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K487" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L487" t="n">
@@ -14220,28 +14232,28 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" t="s" s="2">
+      <c r="A489" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B489" t="s" s="2">
+      <c r="B489" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C489" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D489" t="s" s="2">
+      <c r="C489" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D489" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E489" t="s" s="2">
+      <c r="E489" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F489" t="s" s="2">
+      <c r="F489" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G489" t="s" s="2">
+      <c r="G489" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H489" t="s" s="2">
+      <c r="H489" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14266,28 +14278,28 @@
       </c>
     </row>
     <row r="491">
-      <c r="B491" t="s" s="2">
+      <c r="B491" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C491" t="s" s="2">
+      <c r="C491" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D491" t="s" s="2">
+      <c r="D491" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E491" t="s" s="2">
+      <c r="E491" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F491" t="s" s="2">
+      <c r="F491" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G491" t="s" s="2">
+      <c r="G491" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H491" t="s" s="2">
+      <c r="H491" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I491" t="s" s="2">
+      <c r="I491" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14346,10 +14358,10 @@
       <c r="I493">
         <f>((C493-C492)^2+(D493- D492)^2)^.5</f>
       </c>
-      <c r="J493" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K493" s="2" t="s">
+      <c r="J493" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K493" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L493" t="n">
@@ -14393,28 +14405,28 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="s" s="2">
+      <c r="A495" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B495" t="s" s="2">
+      <c r="B495" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C495" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D495" t="s" s="2">
+      <c r="C495" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D495" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E495" t="s" s="2">
+      <c r="E495" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F495" t="s" s="2">
+      <c r="F495" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G495" t="s" s="2">
+      <c r="G495" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H495" t="s" s="2">
+      <c r="H495" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14439,28 +14451,28 @@
       </c>
     </row>
     <row r="497">
-      <c r="B497" t="s" s="2">
+      <c r="B497" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C497" t="s" s="2">
+      <c r="C497" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D497" t="s" s="2">
+      <c r="D497" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E497" t="s" s="2">
+      <c r="E497" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F497" t="s" s="2">
+      <c r="F497" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G497" t="s" s="2">
+      <c r="G497" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H497" t="s" s="2">
+      <c r="H497" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I497" t="s" s="2">
+      <c r="I497" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14519,10 +14531,10 @@
       <c r="I499">
         <f>((C499-C498)^2+(D499- D498)^2)^.5</f>
       </c>
-      <c r="J499" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K499" s="2" t="s">
+      <c r="J499" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K499" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L499" t="n">
@@ -14566,28 +14578,28 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" t="s" s="2">
+      <c r="A501" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B501" t="s" s="2">
+      <c r="B501" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C501" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D501" t="s" s="2">
+      <c r="C501" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D501" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E501" t="s" s="2">
+      <c r="E501" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F501" t="s" s="2">
+      <c r="F501" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G501" t="s" s="2">
+      <c r="G501" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H501" t="s" s="2">
+      <c r="H501" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14612,28 +14624,28 @@
       </c>
     </row>
     <row r="503">
-      <c r="B503" t="s" s="2">
+      <c r="B503" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C503" t="s" s="2">
+      <c r="C503" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D503" t="s" s="2">
+      <c r="D503" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E503" t="s" s="2">
+      <c r="E503" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F503" t="s" s="2">
+      <c r="F503" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G503" t="s" s="2">
+      <c r="G503" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H503" t="s" s="2">
+      <c r="H503" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I503" t="s" s="2">
+      <c r="I503" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14692,10 +14704,10 @@
       <c r="I505">
         <f>((C505-C504)^2+(D505- D504)^2)^.5</f>
       </c>
-      <c r="J505" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K505" s="2" t="s">
+      <c r="J505" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K505" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L505" t="n">
@@ -14739,28 +14751,28 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" t="s" s="2">
+      <c r="A507" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B507" t="s" s="2">
+      <c r="B507" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C507" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D507" t="s" s="2">
+      <c r="C507" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D507" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E507" t="s" s="2">
+      <c r="E507" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F507" t="s" s="2">
+      <c r="F507" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G507" t="s" s="2">
+      <c r="G507" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H507" t="s" s="2">
+      <c r="H507" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14785,28 +14797,28 @@
       </c>
     </row>
     <row r="509">
-      <c r="B509" t="s" s="2">
+      <c r="B509" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C509" t="s" s="2">
+      <c r="C509" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D509" t="s" s="2">
+      <c r="D509" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E509" t="s" s="2">
+      <c r="E509" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F509" t="s" s="2">
+      <c r="F509" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G509" t="s" s="2">
+      <c r="G509" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H509" t="s" s="2">
+      <c r="H509" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I509" t="s" s="2">
+      <c r="I509" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15010,10 +15022,10 @@
       <c r="I516">
         <f>((C516-C515)^2+(D516- D515)^2)^.5</f>
       </c>
-      <c r="J516" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K516" s="2" t="s">
+      <c r="J516" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K516" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L516" t="n">
@@ -15057,28 +15069,28 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" t="s" s="2">
+      <c r="A518" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B518" t="s" s="2">
+      <c r="B518" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C518" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D518" t="s" s="2">
+      <c r="C518" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D518" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E518" t="s" s="2">
+      <c r="E518" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F518" t="s" s="2">
+      <c r="F518" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G518" t="s" s="2">
+      <c r="G518" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H518" t="s" s="2">
+      <c r="H518" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -15103,28 +15115,28 @@
       </c>
     </row>
     <row r="520">
-      <c r="B520" t="s" s="2">
+      <c r="B520" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C520" t="s" s="2">
+      <c r="C520" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D520" t="s" s="2">
+      <c r="D520" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E520" t="s" s="2">
+      <c r="E520" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F520" t="s" s="2">
+      <c r="F520" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G520" t="s" s="2">
+      <c r="G520" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H520" t="s" s="2">
+      <c r="H520" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I520" t="s" s="2">
+      <c r="I520" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15212,10 +15224,10 @@
       <c r="I523">
         <f>((C523-C522)^2+(D523- D522)^2)^.5</f>
       </c>
-      <c r="J523" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K523" s="2" t="s">
+      <c r="J523" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K523" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L523" t="n">
@@ -15259,28 +15271,28 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" t="s" s="2">
+      <c r="A525" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B525" t="s" s="2">
+      <c r="B525" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C525" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D525" t="s" s="2">
+      <c r="C525" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D525" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E525" t="s" s="2">
+      <c r="E525" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F525" t="s" s="2">
+      <c r="F525" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G525" t="s" s="2">
+      <c r="G525" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H525" t="s" s="2">
+      <c r="H525" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -15305,28 +15317,28 @@
       </c>
     </row>
     <row r="527">
-      <c r="B527" t="s" s="2">
+      <c r="B527" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C527" t="s" s="2">
+      <c r="C527" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D527" t="s" s="2">
+      <c r="D527" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E527" t="s" s="2">
+      <c r="E527" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F527" t="s" s="2">
+      <c r="F527" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G527" t="s" s="2">
+      <c r="G527" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H527" t="s" s="2">
+      <c r="H527" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I527" t="s" s="2">
+      <c r="I527" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15385,10 +15397,10 @@
       <c r="I529">
         <f>((C529-C528)^2+(D529- D528)^2)^.5</f>
       </c>
-      <c r="J529" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K529" s="2" t="s">
+      <c r="J529" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K529" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L529" t="n">
@@ -15432,28 +15444,28 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" t="s" s="2">
+      <c r="A531" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B531" t="s" s="2">
+      <c r="B531" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C531" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D531" t="s" s="2">
+      <c r="C531" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D531" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E531" t="s" s="2">
+      <c r="E531" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F531" t="s" s="2">
+      <c r="F531" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G531" t="s" s="2">
+      <c r="G531" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H531" t="s" s="2">
+      <c r="H531" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -15478,28 +15490,28 @@
       </c>
     </row>
     <row r="533">
-      <c r="B533" t="s" s="2">
+      <c r="B533" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C533" t="s" s="2">
+      <c r="C533" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D533" t="s" s="2">
+      <c r="D533" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E533" t="s" s="2">
+      <c r="E533" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F533" t="s" s="2">
+      <c r="F533" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G533" t="s" s="2">
+      <c r="G533" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H533" t="s" s="2">
+      <c r="H533" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I533" t="s" s="2">
+      <c r="I533" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15558,10 +15570,10 @@
       <c r="I535">
         <f>((C535-C534)^2+(D535- D534)^2)^.5</f>
       </c>
-      <c r="J535" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K535" s="2" t="s">
+      <c r="J535" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K535" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L535" t="n">
@@ -15605,28 +15617,28 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" t="s" s="2">
+      <c r="A537" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B537" t="s" s="2">
+      <c r="B537" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C537" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D537" t="s" s="2">
+      <c r="C537" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D537" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E537" t="s" s="2">
+      <c r="E537" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F537" t="s" s="2">
+      <c r="F537" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G537" t="s" s="2">
+      <c r="G537" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H537" t="s" s="2">
+      <c r="H537" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -15651,28 +15663,28 @@
       </c>
     </row>
     <row r="539">
-      <c r="B539" t="s" s="2">
+      <c r="B539" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C539" t="s" s="2">
+      <c r="C539" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D539" t="s" s="2">
+      <c r="D539" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E539" t="s" s="2">
+      <c r="E539" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F539" t="s" s="2">
+      <c r="F539" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G539" t="s" s="2">
+      <c r="G539" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H539" t="s" s="2">
+      <c r="H539" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I539" t="s" s="2">
+      <c r="I539" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15731,10 +15743,10 @@
       <c r="I541">
         <f>((C541-C540)^2+(D541- D540)^2)^.5</f>
       </c>
-      <c r="J541" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K541" s="2" t="s">
+      <c r="J541" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K541" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L541" t="n">
